--- a/storage/app/public/Disciplinas.xlsx
+++ b/storage/app/public/Disciplinas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauel\OneDrive\Desktop\Udesc-Scheduling\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C306BEC-941C-4AA8-BAA5-F5930F0E8239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C43B2F-B8D1-45ED-9315-A6CCA6FF4A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
   <si>
     <t>Nome-Chave Professor</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Melhoria de Processo de Software</t>
+  </si>
+  <si>
+    <t>QUI;SEX</t>
+  </si>
+  <si>
+    <t>SEG;TER</t>
   </si>
 </sst>
 </file>
@@ -898,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1066,9 @@
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6"/>
@@ -1356,7 +1364,9 @@
         <v>13</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="8"/>
       <c r="J12" s="6"/>
@@ -1393,7 +1403,9 @@
         <v>13</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
@@ -1615,7 +1627,9 @@
         <v>13</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="8"/>
       <c r="J19" s="6"/>
@@ -1652,7 +1666,9 @@
         <v>13</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="8"/>
       <c r="J20" s="6"/>
@@ -1689,7 +1705,9 @@
         <v>13</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -1948,7 +1966,9 @@
         <v>13</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="6"/>
@@ -2133,7 +2153,9 @@
         <v>13</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
@@ -2318,7 +2340,9 @@
         <v>13</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="8"/>
       <c r="J38" s="6"/>
@@ -2762,7 +2786,9 @@
         <v>13</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="8"/>
       <c r="J50" s="6"/>
@@ -2799,7 +2825,9 @@
         <v>13</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
       <c r="J51" s="6"/>
